--- a/Final Presentation/Actual Data for Evaluation.xlsx
+++ b/Final Presentation/Actual Data for Evaluation.xlsx
@@ -196,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,15 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -388,29 +397,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,10 +411,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6584,7 +6593,7 @@
   <dimension ref="B1:L125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J2" sqref="J2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6606,7 +6615,7 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="10">
@@ -6623,7 +6632,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="16"/>
       <c r="E3" s="10"/>
       <c r="G3"/>
       <c r="J3" s="20"/>
@@ -6631,7 +6640,7 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="16"/>
       <c r="E4" s="10"/>
       <c r="G4"/>
       <c r="J4" s="20"/>
@@ -6642,33 +6651,33 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="19"/>
       <c r="G6"/>
       <c r="I6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
@@ -6676,14 +6685,14 @@
         <v>49</v>
       </c>
       <c r="G7"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7718,18 +7727,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="L22:L24"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="J2:K4"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
